--- a/参考文献/参考文献4/数据/Data.xlsx
+++ b/参考文献/参考文献4/数据/Data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80C11A0-95D5-4B18-8EB7-60F6C91F496D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09CCBBE-E497-4D4D-BCFE-9205A092573B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8340" yWindow="2175" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t>温度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,7 +70,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OCV与SOC</t>
+    <t>SSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOC与OCV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度与欧姆内阻电容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R_Ohm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a*exp(-b/T)+c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容量衰减</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R^2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -102,7 +166,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -125,16 +189,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -143,8 +217,21 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -426,286 +513,576 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="6">
         <v>-10</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="6">
         <v>10</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="6">
         <v>25</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="6">
         <v>40</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="6">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>2752.22</v>
       </c>
-      <c r="C3" s="3">
-        <v>2990.39</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3" s="2">
+        <v>2987.39</v>
+      </c>
+      <c r="D3" s="2">
         <v>3038.53</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
+        <v>3156.18</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3177.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2663.3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2982.87</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3032.76</v>
+      </c>
+      <c r="E4" s="2">
         <v>3165.05</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F4" s="2">
         <v>3184.43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>2663.3</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2979.87</v>
-      </c>
-      <c r="D4" s="3">
-        <v>3032.76</v>
-      </c>
-      <c r="E4" s="3">
-        <v>3156.18</v>
-      </c>
-      <c r="F4" s="3">
-        <v>3177.95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
-        <f>B4/B3</f>
-        <v>0.96769153628707016</v>
-      </c>
-      <c r="C5" s="3">
-        <f t="shared" ref="C5:F5" si="0">C4/C3</f>
-        <v>0.9964820642123603</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>0.9981010554445735</v>
-      </c>
-      <c r="E5" s="3">
-        <f t="shared" si="0"/>
-        <v>0.99719751662690936</v>
-      </c>
-      <c r="F5" s="3">
-        <f t="shared" si="0"/>
-        <v>0.99796509893450314</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <f>(B3+B4)/2</f>
         <v>2707.76</v>
       </c>
-      <c r="C6" s="3">
-        <f t="shared" ref="C6:F6" si="1">(C3+C4)/2</f>
+      <c r="C6" s="2">
+        <f t="shared" ref="C6:D6" si="0">(C3+C4)/2</f>
         <v>2985.13</v>
       </c>
-      <c r="D6" s="3">
-        <f t="shared" si="1"/>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
         <v>3035.6450000000004</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <f>(E4+E3)/2</f>
         <v>3160.6149999999998</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <f>(F4+F3)/2</f>
         <v>3181.1899999999996</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
-      <c r="B8" s="3">
-        <v>2949</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1.464E-3</v>
-      </c>
-      <c r="D8" s="3">
-        <v>-46.07</v>
-      </c>
-      <c r="E8" s="3">
-        <v>-0.14599999999999999</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.98699999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <v>9433</v>
+      </c>
+      <c r="C8" s="2">
+        <v>89.96</v>
+      </c>
+      <c r="D8" s="2">
+        <v>-3945</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="G8" s="2">
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
-      <c r="B10" s="3">
-        <v>0.998</v>
-      </c>
-      <c r="C10" s="4">
-        <v>-4.6249999999999998E-6</v>
-      </c>
-      <c r="D10" s="3">
-        <v>-6.4910000000000002E-3</v>
-      </c>
-      <c r="E10" s="3">
-        <v>-0.1542</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0.99919999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2">
+        <v>-10</v>
+      </c>
+      <c r="C13" s="2">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2">
+        <v>25</v>
+      </c>
+      <c r="E13" s="2">
+        <v>40</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3227</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3230</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3229</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3232</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2.529E-2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3.2340000000000001E-2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3.6310000000000002E-2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3.5389999999999998E-2</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="2">
+        <v>-445.7</v>
+      </c>
+      <c r="C16" s="2">
+        <v>-360.9</v>
+      </c>
+      <c r="D16" s="2">
+        <v>-322.2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>-204.1</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2">
+        <v>-15.22</v>
+      </c>
+      <c r="C17" s="2">
+        <v>-19.62</v>
+      </c>
+      <c r="D17" s="2">
+        <v>-23.02</v>
+      </c>
+      <c r="E17" s="2">
+        <v>-18.88</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.98480000000000001</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.996</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.9919</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.98440000000000005</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="B19" s="2">
+        <v>2495</v>
+      </c>
+      <c r="C19" s="2">
+        <v>974.2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1646</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1989</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="3">
-        <v>-10</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="B22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1.7639999999999999E-2</v>
+      </c>
+      <c r="D23" s="2">
+        <v>3041</v>
+      </c>
+      <c r="E23" s="2">
+        <v>4.7869999999999996E-3</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-5.5029999999999999E-13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="2">
+        <v>-0.1414</v>
+      </c>
+      <c r="C24" s="2">
+        <v>-1.2880000000000001E-3</v>
+      </c>
+      <c r="D24" s="2">
+        <v>6.829E-3</v>
+      </c>
+      <c r="E24" s="2">
+        <v>5.646E-3</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.65169999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.22309999999999999</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4.6709999999999998E-3</v>
+      </c>
+      <c r="D25" s="2">
+        <v>142.6</v>
+      </c>
+      <c r="E25" s="2">
+        <v>7.3010000000000002E-4</v>
+      </c>
+      <c r="F25" s="3">
+        <v>26300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="3">
+      <c r="B26" s="2">
+        <v>2.153E-3</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1.438E-2</v>
+      </c>
+      <c r="D26" s="2">
+        <v>-0.1046</v>
+      </c>
+      <c r="E26" s="2">
+        <v>3.3570000000000003E-2</v>
+      </c>
+      <c r="F26" s="2">
+        <v>-5.202E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.99680000000000002</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.98780000000000001</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.97789999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="3">
+        <v>5.1789999999999997E-5</v>
+      </c>
+      <c r="C28" s="3">
+        <v>4.5900000000000001E-8</v>
+      </c>
+      <c r="D28" s="3">
+        <v>27410</v>
+      </c>
+      <c r="E28" s="3">
+        <v>2.8159999999999998E-7</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1268000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1">
+        <v>6</v>
+      </c>
+      <c r="E31" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="1">
+        <v>30330</v>
+      </c>
+      <c r="C32" s="1">
+        <v>19300</v>
+      </c>
+      <c r="D32" s="1">
+        <v>12000</v>
+      </c>
+      <c r="E32" s="1">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="3">
-        <v>40</v>
-      </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="C33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="9">
+        <v>25990</v>
+      </c>
+      <c r="B34" s="1">
+        <v>-0.55720000000000003</v>
+      </c>
+      <c r="C34" s="9">
+        <v>10620</v>
+      </c>
+      <c r="D34" s="1">
+        <v>7.1009999999999997E-3</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="F34" s="9">
+        <v>2.5149999999999998E-22</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
+    <mergeCell ref="A30:F30"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A21:F21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/参考文献/参考文献4/数据/Data.xlsx
+++ b/参考文献/参考文献4/数据/Data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09CCBBE-E497-4D4D-BCFE-9205A092573B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590EF3C3-3314-4793-A20B-0D1304F9CC92}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="2175" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>温度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,10 +103,6 @@
   </si>
   <si>
     <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a*exp(-b/T)+c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -217,21 +213,21 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -515,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -530,33 +526,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="4">
         <v>-10</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>10</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="4">
         <v>25</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="4">
         <v>40</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="4">
         <v>55</v>
       </c>
     </row>
@@ -634,12 +630,9 @@
         <f>(F4+F3)/2</f>
         <v>3181.1899999999996</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -662,26 +655,28 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="2">
-        <v>9433</v>
+        <v>2949</v>
       </c>
       <c r="C8" s="2">
-        <v>89.96</v>
+        <v>1.464E-3</v>
       </c>
       <c r="D8" s="2">
-        <v>-3945</v>
-      </c>
-      <c r="E8" s="2"/>
+        <v>-46.07</v>
+      </c>
+      <c r="E8" s="2">
+        <v>-0.14599999999999999</v>
+      </c>
       <c r="F8" s="2">
-        <v>0.93500000000000005</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="G8" s="2">
-        <v>9400</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -699,7 +694,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
       <c r="D10" s="2"/>
@@ -707,14 +702,14 @@
       <c r="F10" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
@@ -843,14 +838,14 @@
       <c r="F19" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
@@ -993,18 +988,18 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
+      <c r="A30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31" s="1">
         <v>0.5</v>
@@ -1021,7 +1016,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32" s="1">
         <v>30330</v>
@@ -1041,29 +1036,29 @@
         <v>20</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="9">
+      <c r="A34" s="6">
         <v>25990</v>
       </c>
       <c r="B34" s="1">
         <v>-0.55720000000000003</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="6">
         <v>10620</v>
       </c>
       <c r="D34" s="1">
@@ -1072,7 +1067,7 @@
       <c r="E34" s="1">
         <v>0.999</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="6">
         <v>2.5149999999999998E-22</v>
       </c>
     </row>
